--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7302A4-B8E6-407C-8425-0100218ACDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF79E10A-044B-4CCE-ABC0-C73991FE4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
   <si>
     <t>Complemento</t>
   </si>
@@ -585,6 +585,21 @@
   </si>
   <si>
     <t>S050008</t>
+  </si>
+  <si>
+    <t>ADOÇANTE - 100ML</t>
+  </si>
+  <si>
+    <t>S030004</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S150037</t>
   </si>
 </sst>
 </file>
@@ -692,7 +707,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1024,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,175 +1103,175 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>105</v>
+        <v>114</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>131</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
-        <v>809</v>
+        <v>154</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>1045</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="4">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>165</v>
@@ -1247,60 +1280,60 @@
         <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1308,21 +1341,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>165</v>
@@ -1331,12 +1364,12 @@
         <v>21</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>165</v>
@@ -1345,32 +1378,32 @@
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1378,35 +1411,35 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="5">
-        <v>904</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>165</v>
@@ -1414,27 +1447,27 @@
       <c r="C27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="4">
-        <v>903</v>
+      <c r="D27" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D28" s="4">
-        <v>108</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>168</v>
@@ -1443,46 +1476,46 @@
         <v>30</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1490,97 +1523,97 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>163</v>
+        <v>34</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="5">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="4">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D37" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4">
+        <v>137</v>
+      </c>
+      <c r="D38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1588,21 +1621,21 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="5">
-        <v>899</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>165</v>
@@ -1611,12 +1644,12 @@
         <v>44</v>
       </c>
       <c r="D41" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>165</v>
@@ -1625,12 +1658,12 @@
         <v>44</v>
       </c>
       <c r="D42" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>165</v>
@@ -1639,54 +1672,54 @@
         <v>44</v>
       </c>
       <c r="D43" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D44" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="4">
-        <v>471</v>
+        <v>139</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>165</v>
@@ -1695,46 +1728,46 @@
         <v>49</v>
       </c>
       <c r="D47" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="D48" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1742,27 +1775,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1770,27 +1803,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D53" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1798,77 +1831,77 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="4">
+        <v>118</v>
+      </c>
+      <c r="D55" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>171</v>
@@ -1877,12 +1910,12 @@
         <v>120</v>
       </c>
       <c r="D60" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>171</v>
@@ -1891,166 +1924,166 @@
         <v>120</v>
       </c>
       <c r="D61" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D64" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
-        <v>820</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D67" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4">
-        <v>750</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D70" s="4">
-        <v>395</v>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D71" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" s="4">
-        <v>87</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>165</v>
@@ -2059,102 +2092,102 @@
         <v>80</v>
       </c>
       <c r="D73" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="5">
-        <v>994</v>
+        <v>83</v>
+      </c>
+      <c r="D76" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="5">
-        <v>695</v>
+        <v>83</v>
+      </c>
+      <c r="D77" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="D78" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="D79" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2162,105 +2195,105 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D82" s="4">
-        <v>918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="5">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="D84" s="4">
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="5">
-        <v>799</v>
+      <c r="D85" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D86" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D87" s="5">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>166</v>
@@ -2269,74 +2302,74 @@
         <v>97</v>
       </c>
       <c r="D88" s="5">
-        <v>762</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="4">
-        <v>211</v>
+        <v>97</v>
+      </c>
+      <c r="D89" s="5">
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D90" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D92" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2344,51 +2377,89 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D97" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition ref="A1:A94"/>
+  <autoFilter ref="A1:D97" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D2 A4:D64 A66:D97">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D65">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A65))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D79:D95 D50:D77 D8:D48" numberStoredAsText="1"/>
+    <ignoredError sqref="D81:D97 D66:D79 D9:D49 D51:D64" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF79E10A-044B-4CCE-ABC0-C73991FE4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A4A78-5C70-4C32-AE93-FF32A820F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="189">
   <si>
     <t>Complemento</t>
   </si>
@@ -353,12 +353,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -600,6 +594,18 @@
   </si>
   <si>
     <t>S150037</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
   </si>
 </sst>
 </file>
@@ -707,25 +713,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -761,9 +749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -907,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1092,7 +1080,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>103</v>
@@ -1103,27 +1091,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1134,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1148,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1159,13 +1147,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1173,13 +1161,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1187,30 +1175,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1232,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1243,97 +1231,97 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1341,69 +1329,69 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1411,125 +1399,125 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4">
-        <v>52</v>
+        <v>114</v>
+      </c>
+      <c r="D26" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="5">
-        <v>904</v>
+        <v>114</v>
+      </c>
+      <c r="D27" s="4">
+        <v>903</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>903</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="4">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="4">
-        <v>100</v>
+        <v>188</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1537,97 +1525,97 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>163</v>
+        <v>34</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="5">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="4">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D38" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="4">
+        <v>135</v>
+      </c>
+      <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1635,153 +1623,153 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="5">
-        <v>899</v>
+        <v>42</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D45" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="4">
-        <v>471</v>
+        <v>137</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D47" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="D49" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1789,27 +1777,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1817,27 +1805,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D54" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -1845,363 +1833,363 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="4">
+        <v>116</v>
+      </c>
+      <c r="D56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D62" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>163</v>
+        <v>68</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="4">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D71" s="4">
-        <v>553</v>
+        <v>750</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D72" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D74" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="5">
-        <v>994</v>
+        <v>83</v>
+      </c>
+      <c r="D78" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="D80" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2209,13 +2197,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2223,49 +2211,49 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D84" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>165</v>
@@ -2273,103 +2261,103 @@
       <c r="C86" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="5">
-        <v>163</v>
+      <c r="D86" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D87" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D88" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D89" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="4">
-        <v>211</v>
+        <v>97</v>
+      </c>
+      <c r="D91" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2377,89 +2365,90 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D94" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" s="5">
+        <v>125</v>
+      </c>
+      <c r="D96" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-      <sortCondition ref="A1:A96"/>
+  <autoFilter ref="A1:D98" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D64 A66:D97">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D98">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D65">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D81:D97 D66:D79 D9:D49 D51:D64" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A4A78-5C70-4C32-AE93-FF32A820F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26580B19-EEC4-4CC6-930E-11D7F4D3C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -551,15 +551,9 @@
     <t>CX</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>PC C/10</t>
   </si>
   <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>DISPENSER ALCOOL EM GEL - UNICA</t>
   </si>
   <si>
@@ -606,6 +600,12 @@
   </si>
   <si>
     <t>S150189</t>
+  </si>
+  <si>
+    <t>S150204</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>161</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>163</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>161</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>161</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26580B19-EEC4-4CC6-930E-11D7F4D3C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE2583-1B30-4168-AAEB-C8BCFE2A86EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -494,15 +494,9 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
     <t>S030006</t>
   </si>
   <si>
-    <t>831</t>
-  </si>
-  <si>
     <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
@@ -606,6 +600,9 @@
   </si>
   <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>BISCOITO - DOCE</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1080,7 +1077,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>103</v>
@@ -1091,16 +1088,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1105,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>112</v>
@@ -1122,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1136,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1150,7 +1147,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>110</v>
@@ -1164,7 +1161,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>129</v>
@@ -1175,30 +1172,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>153</v>
+      <c r="D10" s="4">
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1220,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1234,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1248,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1262,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1276,7 +1273,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>105</v>
@@ -1290,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1304,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1315,13 +1312,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1332,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1346,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1360,7 +1357,7 @@
         <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1374,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1388,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1402,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1416,7 +1413,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>114</v>
@@ -1430,7 +1427,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>114</v>
@@ -1444,7 +1441,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1458,7 +1455,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1469,13 +1466,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1483,13 +1480,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1511,10 +1508,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>150</v>
@@ -1528,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1539,16 +1536,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1570,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1584,7 +1581,7 @@
         <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>133</v>
@@ -1598,7 +1595,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>135</v>
@@ -1612,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1626,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1640,7 +1637,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1654,7 +1651,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1668,7 +1665,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>44</v>
@@ -1682,7 +1679,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>44</v>
@@ -1696,7 +1693,7 @@
         <v>136</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>137</v>
@@ -1710,7 +1707,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>108</v>
@@ -1724,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1738,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -1749,27 +1746,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1780,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1794,7 +1791,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -1808,7 +1805,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -1822,7 +1819,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>58</v>
@@ -1836,7 +1833,7 @@
         <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>116</v>
@@ -1850,7 +1847,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>121</v>
@@ -1864,7 +1861,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1878,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1892,7 +1889,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>64</v>
@@ -1906,7 +1903,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>118</v>
@@ -1920,7 +1917,7 @@
         <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>118</v>
@@ -1934,7 +1931,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>118</v>
@@ -1948,7 +1945,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>66</v>
@@ -1962,7 +1959,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>68</v>
@@ -1973,16 +1970,16 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,7 +1987,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>70</v>
@@ -2001,13 +1998,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2018,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
@@ -2032,7 +2029,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
@@ -2046,7 +2043,7 @@
         <v>139</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>74</v>
@@ -2060,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>76</v>
@@ -2074,7 +2071,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>78</v>
@@ -2088,7 +2085,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>80</v>
@@ -2102,7 +2099,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>80</v>
@@ -2113,10 +2110,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>80</v>
@@ -2130,7 +2127,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>83</v>
@@ -2144,7 +2141,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>83</v>
@@ -2158,7 +2155,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>86</v>
@@ -2172,7 +2169,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
@@ -2183,13 +2180,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2200,7 +2197,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>89</v>
@@ -2214,7 +2211,7 @@
         <v>140</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>141</v>
@@ -2228,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>91</v>
@@ -2242,7 +2239,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>123</v>
@@ -2256,7 +2253,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>93</v>
@@ -2270,7 +2267,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>93</v>
@@ -2284,7 +2281,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>93</v>
@@ -2298,7 +2295,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
@@ -2312,7 +2309,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>97</v>
@@ -2326,7 +2323,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>97</v>
@@ -2340,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>101</v>
@@ -2354,7 +2351,7 @@
         <v>146</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>148</v>
@@ -2368,7 +2365,7 @@
         <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>149</v>
@@ -2382,7 +2379,7 @@
         <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>143</v>
@@ -2396,7 +2393,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>125</v>
@@ -2410,7 +2407,7 @@
         <v>126</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>127</v>
@@ -2424,7 +2421,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>145</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE2583-1B30-4168-AAEB-C8BCFE2A86EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586CB5E-DB1F-472A-A2DF-3E0DC03E6FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -419,12 +419,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>ALMOFADA P/ CARIMBO N°03 - AZUL - AZUL</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -603,6 +594,21 @@
   </si>
   <si>
     <t>BISCOITO - DOCE</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -710,7 +716,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1044,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1077,7 +1101,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>103</v>
@@ -1088,16 +1112,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1129,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>112</v>
@@ -1119,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1133,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1147,7 +1171,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>110</v>
@@ -1158,13 +1182,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1172,27 +1196,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1203,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1217,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1231,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1245,7 +1269,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1259,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1273,7 +1297,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>105</v>
@@ -1287,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1301,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1312,13 +1336,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1329,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1343,7 +1367,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1354,10 +1378,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1371,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1385,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1399,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1413,7 +1437,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>114</v>
@@ -1424,10 +1448,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>114</v>
@@ -1441,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1455,7 +1479,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1466,13 +1490,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1480,13 +1504,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1497,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1508,13 +1532,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1525,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1536,16 +1560,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1567,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1578,27 +1602,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="4">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1609,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1623,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1637,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1651,7 +1675,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1665,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>44</v>
@@ -1679,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>44</v>
@@ -1690,13 +1714,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1707,7 +1731,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>108</v>
@@ -1721,7 +1745,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1735,7 +1759,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -1746,27 +1770,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1777,7 +1801,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1791,7 +1815,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -1805,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -1819,7 +1843,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>58</v>
@@ -1833,7 +1857,7 @@
         <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>116</v>
@@ -1847,7 +1871,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>121</v>
@@ -1861,7 +1885,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1875,7 +1899,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1889,7 +1913,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>64</v>
@@ -1903,7 +1927,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>118</v>
@@ -1914,10 +1938,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>118</v>
@@ -1931,7 +1955,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>118</v>
@@ -1945,7 +1969,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>66</v>
@@ -1959,7 +1983,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>68</v>
@@ -1970,16 +1994,16 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>70</v>
@@ -1998,13 +2022,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2015,7 +2039,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
@@ -2029,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
@@ -2040,10 +2064,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>74</v>
@@ -2057,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>76</v>
@@ -2071,7 +2095,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>78</v>
@@ -2085,7 +2109,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>80</v>
@@ -2099,7 +2123,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>80</v>
@@ -2110,10 +2134,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>80</v>
@@ -2127,7 +2151,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>83</v>
@@ -2141,7 +2165,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>83</v>
@@ -2155,7 +2179,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>86</v>
@@ -2169,7 +2193,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
@@ -2180,13 +2204,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2197,7 +2221,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>89</v>
@@ -2208,13 +2232,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2225,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>91</v>
@@ -2239,7 +2263,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>123</v>
@@ -2253,7 +2277,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>93</v>
@@ -2267,7 +2291,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>93</v>
@@ -2281,7 +2305,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>93</v>
@@ -2295,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
@@ -2309,7 +2333,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>97</v>
@@ -2323,7 +2347,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>97</v>
@@ -2337,7 +2361,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>101</v>
@@ -2348,13 +2372,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2362,13 +2386,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2376,13 +2400,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2393,7 +2417,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>125</v>
@@ -2404,27 +2428,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -2437,13 +2461,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="3" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D37 A39:D96 A98:D98">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:D38">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A97))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586CB5E-DB1F-472A-A2DF-3E0DC03E6FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9E64B-3BA4-4B90-810E-39256338C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -609,6 +603,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>S050019</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
   </si>
 </sst>
 </file>
@@ -716,25 +716,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1068,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1098,13 +1080,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1112,27 +1094,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1143,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1157,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1168,13 +1150,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1182,13 +1164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1196,27 +1178,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1227,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1241,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1255,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1269,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1283,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1294,13 +1276,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1311,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1325,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1336,13 +1318,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1353,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1367,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1378,10 +1360,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1395,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1409,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1423,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1434,13 +1416,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1448,13 +1430,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1465,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1476,10 +1458,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1490,13 +1472,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1504,13 +1486,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1521,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1532,13 +1514,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1549,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1560,16 +1542,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,7 +1559,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1591,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1602,27 +1584,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1633,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1647,7 +1629,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1661,7 +1643,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1675,7 +1657,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1689,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>44</v>
@@ -1703,7 +1685,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>44</v>
@@ -1714,13 +1696,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1728,83 +1710,83 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D47" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="4">
         <v>167</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1812,27 +1794,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1840,27 +1822,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D55" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -1868,223 +1850,223 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="4">
+        <v>115</v>
+      </c>
+      <c r="D57" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D58" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>156</v>
+        <v>68</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="4">
-        <v>211</v>
+        <v>175</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="D69" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2092,13 +2074,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2106,13 +2088,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2120,13 +2102,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2134,13 +2116,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2148,13 +2130,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2162,13 +2144,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2176,13 +2158,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="5">
         <v>994</v>
@@ -2190,13 +2172,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D80" s="5">
         <v>695</v>
@@ -2204,13 +2186,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2218,13 +2200,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2232,13 +2214,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2246,13 +2228,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2260,13 +2242,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2274,13 +2256,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2288,13 +2270,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="5">
         <v>163</v>
@@ -2302,13 +2284,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -2316,13 +2298,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D89" s="5">
         <v>160</v>
@@ -2330,13 +2312,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="5">
         <v>569</v>
@@ -2344,13 +2326,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="5">
         <v>762</v>
@@ -2358,13 +2340,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2372,13 +2354,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2386,13 +2368,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2400,13 +2382,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2414,13 +2396,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2428,27 +2410,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -2461,23 +2443,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D37 A39:D96 A98:D98">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D98">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:D38">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:D97">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A97))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9E64B-3BA4-4B90-810E-39256338C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168357A-53C6-4F67-A6E3-D79F9F773DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1094,27 +1094,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1178,27 +1178,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1265,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1276,13 +1276,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1293,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1349,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1405,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1573,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1584,27 +1584,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1612,27 +1612,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D42" s="5">
         <v>899</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="5">
         <v>896</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5">
         <v>900</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5">
         <v>898</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D49" s="4">
         <v>166</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
         <v>167</v>
@@ -1766,27 +1766,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>40</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1990,27 +1990,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>820</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
         <v>819</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5">
         <v>994</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D80" s="5">
         <v>695</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="5">
         <v>163</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D89" s="5">
         <v>160</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="5">
         <v>569</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="5">
         <v>762</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2410,27 +2410,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168357A-53C6-4F67-A6E3-D79F9F773DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6060855-E239-4967-B852-663905C6BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -395,12 +395,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
     <t>S150037</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -609,6 +600,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>101</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>110</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1153,7 +1153,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>108</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1178,27 +1178,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1265,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>103</v>
@@ -1293,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1349,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1405,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1419,7 +1419,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>112</v>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>112</v>
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1461,7 +1461,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1573,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1584,27 +1584,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1629,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1643,7 +1643,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
@@ -1657,7 +1657,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1671,7 +1671,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1685,7 +1685,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1727,7 +1727,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>106</v>
@@ -1741,7 +1741,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>48</v>
@@ -1755,7 +1755,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>48</v>
@@ -1766,27 +1766,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>51</v>
@@ -1811,7 +1811,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>53</v>
@@ -1825,7 +1825,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
@@ -1839,7 +1839,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1853,7 +1853,7 @@
         <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>114</v>
@@ -1864,16 +1864,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -1895,7 +1895,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -1909,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>63</v>
@@ -1923,7 +1923,7 @@
         <v>115</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>116</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>116</v>
@@ -1951,7 +1951,7 @@
         <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>116</v>
@@ -1965,7 +1965,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
@@ -1979,7 +1979,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>67</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
@@ -2049,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>71</v>
@@ -2063,7 +2063,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>74</v>
@@ -2077,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>76</v>
@@ -2091,7 +2091,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>78</v>
@@ -2105,7 +2105,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>78</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>78</v>
@@ -2133,7 +2133,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>81</v>
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>81</v>
@@ -2161,7 +2161,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
@@ -2175,7 +2175,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>87</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>89</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2259,7 +2259,7 @@
         <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>91</v>
@@ -2273,7 +2273,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>91</v>
@@ -2287,7 +2287,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>91</v>
@@ -2301,7 +2301,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>95</v>
@@ -2315,7 +2315,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>95</v>
@@ -2329,7 +2329,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>95</v>
@@ -2343,7 +2343,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>99</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2410,27 +2410,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6060855-E239-4967-B852-663905C6BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7344F11-0BC1-40E1-A692-9D999EB68BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="187">
   <si>
     <t>Complemento</t>
   </si>
@@ -140,18 +140,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -488,12 +476,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -524,9 +506,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -609,6 +588,18 @@
   </si>
   <si>
     <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1080,13 +1071,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1094,27 +1085,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1125,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1139,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1150,13 +1141,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1164,13 +1155,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1178,27 +1169,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1209,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1223,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1237,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1251,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1265,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1276,13 +1267,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1293,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1307,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1318,13 +1309,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1335,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1349,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1360,10 +1351,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1377,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1391,7 +1382,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1405,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1416,13 +1407,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1430,13 +1421,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1447,7 +1438,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1458,10 +1449,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1472,13 +1463,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1486,13 +1477,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1503,7 +1494,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1514,69 +1505,69 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1584,27 +1575,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1612,13 +1603,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
         <v>1159</v>
@@ -1626,13 +1617,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1640,13 +1631,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D42" s="5">
         <v>899</v>
@@ -1654,13 +1645,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D43" s="5">
         <v>896</v>
@@ -1668,13 +1659,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="5">
         <v>900</v>
@@ -1682,13 +1673,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D45" s="5">
         <v>898</v>
@@ -1696,13 +1687,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1710,13 +1701,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1724,13 +1715,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1738,13 +1729,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
         <v>166</v>
@@ -1752,13 +1743,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4">
         <v>167</v>
@@ -1766,27 +1757,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1794,13 +1785,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1808,13 +1799,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1822,13 +1813,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1836,13 +1827,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -1850,13 +1841,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1864,13 +1855,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D58" s="4">
         <v>1163</v>
@@ -1878,13 +1869,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4">
         <v>40</v>
@@ -1892,13 +1883,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1906,13 +1897,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1920,13 +1911,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1934,13 +1925,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1948,13 +1939,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1962,13 +1953,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -1976,13 +1967,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1990,27 +1981,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -2018,13 +2009,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2032,13 +2023,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" s="4">
         <v>820</v>
@@ -2046,13 +2037,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" s="4">
         <v>819</v>
@@ -2060,13 +2051,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2074,13 +2065,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2088,13 +2079,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2102,13 +2093,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2116,13 +2107,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2130,13 +2121,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2144,13 +2135,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2158,13 +2149,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5">
         <v>994</v>
@@ -2172,13 +2163,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D80" s="5">
         <v>695</v>
@@ -2186,13 +2177,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2200,13 +2191,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2214,13 +2205,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2228,13 +2219,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2242,13 +2233,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2256,13 +2247,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2270,13 +2261,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D87" s="5">
         <v>163</v>
@@ -2284,13 +2275,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -2298,13 +2289,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D89" s="5">
         <v>160</v>
@@ -2312,13 +2303,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D90" s="5">
         <v>569</v>
@@ -2326,13 +2317,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D91" s="5">
         <v>762</v>
@@ -2340,13 +2331,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2354,13 +2345,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2368,13 +2359,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2382,13 +2373,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2396,13 +2387,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2410,27 +2401,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7344F11-0BC1-40E1-A692-9D999EB68BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AF5ED-6E3D-4154-B755-1FEA673DCF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -374,15 +365,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
     <t>S150295</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -600,6 +579,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1085,27 +1085,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>105</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>103</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1169,27 +1169,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>809</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>1045</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>103</v>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
@@ -1253,13 +1253,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>31</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1323,13 +1323,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D25" s="4">
         <v>52</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D28" s="4">
         <v>108</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
         <v>100</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D32" s="4">
         <v>103</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1519,13 +1519,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1547,13 +1547,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1561,13 +1561,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1575,27 +1575,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4">
         <v>1159</v>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D42" s="5">
         <v>899</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="5">
         <v>896</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5">
         <v>900</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="5">
         <v>898</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D49" s="4">
         <v>166</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="4">
         <v>167</v>
@@ -1757,27 +1757,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1785,27 +1785,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1827,13 +1827,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D58" s="4">
         <v>1163</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" s="4">
         <v>40</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1981,27 +1981,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -2009,27 +2009,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4">
         <v>820</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
         <v>819</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D79" s="5">
         <v>994</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D80" s="5">
         <v>695</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D87" s="5">
         <v>163</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D89" s="5">
         <v>160</v>
@@ -2303,13 +2303,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D90" s="5">
         <v>569</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D91" s="5">
         <v>762</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2401,27 +2401,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AF5ED-6E3D-4154-B755-1FEA673DCF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A016B88-15D3-41CE-AC57-7EE831D7F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A016B88-15D3-41CE-AC57-7EE831D7F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336263A-6D9C-4322-988A-67823AAFF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -593,13 +587,19 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>S080023</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>94</v>
@@ -1085,38 +1085,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1130,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1169,27 +1169,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1270,7 +1270,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>96</v>
@@ -1284,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1298,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1340,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1382,7 +1382,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1438,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1452,7 +1452,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1494,7 +1494,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1519,13 +1519,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1547,13 +1547,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1564,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1575,27 +1575,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1634,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1648,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>38</v>
@@ -1662,7 +1662,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>38</v>
@@ -1676,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>38</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1718,7 +1718,7 @@
         <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>99</v>
@@ -1732,7 +1732,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>43</v>
@@ -1746,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1757,27 +1757,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>45</v>
@@ -1802,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>47</v>
@@ -1816,7 +1816,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1830,7 +1830,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>51</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="4">
         <v>1163</v>
@@ -1872,7 +1872,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>53</v>
@@ -1886,7 +1886,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>55</v>
@@ -1900,7 +1900,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1956,7 +1956,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>59</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>60</v>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>62</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="4">
         <v>1167</v>
@@ -2026,7 +2026,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>64</v>
@@ -2040,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -2054,7 +2054,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>67</v>
@@ -2068,7 +2068,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2082,7 +2082,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>71</v>
@@ -2096,7 +2096,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2124,7 +2124,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2138,7 +2138,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>74</v>
@@ -2152,7 +2152,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>77</v>
@@ -2166,7 +2166,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>77</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>80</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>82</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D85" s="4">
         <v>918</v>
@@ -2250,7 +2250,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>84</v>
@@ -2264,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>84</v>
@@ -2278,7 +2278,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>84</v>
@@ -2292,7 +2292,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>88</v>
@@ -2306,7 +2306,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>88</v>
@@ -2320,7 +2320,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>88</v>
@@ -2334,7 +2334,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>92</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2401,27 +2401,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336263A-6D9C-4322-988A-67823AAFF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F9698E-AB0A-4399-A53D-DF1C3FA1F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>Complemento</t>
   </si>
@@ -362,15 +362,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -422,15 +416,9 @@
     <t>TESOURA ESCOLAR - UNICA</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -521,12 +509,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>S150204</t>
-  </si>
-  <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
     <t>BISCOITO - DOCE</t>
   </si>
   <si>
@@ -600,6 +582,18 @@
   </si>
   <si>
     <t>S080023</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1074,7 +1068,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>94</v>
@@ -1085,24 +1079,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>102</v>
@@ -1113,10 +1107,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1130,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1144,7 +1138,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
@@ -1155,13 +1149,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1169,27 +1163,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>182</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1200,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1214,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1228,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1242,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1256,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1270,7 +1264,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>96</v>
@@ -1284,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1298,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1309,13 +1303,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1326,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1340,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1351,10 +1345,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1368,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1382,7 +1376,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1396,7 +1390,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1410,7 +1404,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
@@ -1421,10 +1415,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>104</v>
@@ -1438,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1452,7 +1446,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1463,13 +1457,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1477,13 +1471,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1494,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1505,13 +1499,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1519,13 +1513,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1533,13 +1527,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1547,13 +1541,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1564,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1575,27 +1569,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1603,10 +1597,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1620,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1634,7 +1628,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1648,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>38</v>
@@ -1662,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>38</v>
@@ -1676,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>38</v>
@@ -1687,13 +1681,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1701,13 +1695,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1718,7 +1712,7 @@
         <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>99</v>
@@ -1732,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>43</v>
@@ -1746,7 +1740,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1757,27 +1751,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1785,10 +1779,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>45</v>
@@ -1802,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>47</v>
@@ -1816,7 +1810,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1830,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>51</v>
@@ -1844,7 +1838,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>106</v>
@@ -1855,16 +1849,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,7 +1866,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>53</v>
@@ -1886,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>55</v>
@@ -1900,7 +1894,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
@@ -1911,13 +1905,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1925,13 +1919,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1939,13 +1933,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1956,7 +1950,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>59</v>
@@ -1967,10 +1961,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>60</v>
@@ -1981,16 +1975,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +1992,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>62</v>
@@ -2009,13 +2003,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4">
         <v>1167</v>
@@ -2026,7 +2020,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>64</v>
@@ -2040,7 +2034,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -2054,7 +2048,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>67</v>
@@ -2068,7 +2062,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2082,7 +2076,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>71</v>
@@ -2096,7 +2090,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2107,10 +2101,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2124,7 +2118,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2138,7 +2132,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>74</v>
@@ -2152,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>77</v>
@@ -2166,7 +2160,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>77</v>
@@ -2177,13 +2171,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2194,7 +2188,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>80</v>
@@ -2205,13 +2199,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2222,7 +2216,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>82</v>
@@ -2233,16 +2227,16 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D85" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,7 +2244,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>84</v>
@@ -2264,7 +2258,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>84</v>
@@ -2278,7 +2272,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>84</v>
@@ -2292,7 +2286,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>88</v>
@@ -2306,7 +2300,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>88</v>
@@ -2320,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>88</v>
@@ -2334,7 +2328,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>92</v>
@@ -2345,13 +2339,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2359,78 +2353,64 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="5">
+        <v>123</v>
+      </c>
+      <c r="D97" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D97" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2438,7 +2418,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F9698E-AB0A-4399-A53D-DF1C3FA1F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528974A-7DB2-4245-807A-67A17596D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -594,6 +588,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1079,27 +1079,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4">
         <v>829</v>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1236,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1250,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1292,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1362,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1390,7 +1390,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D26" s="5">
         <v>904</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1488,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1569,27 +1569,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1614,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1628,7 +1628,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1642,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>38</v>
@@ -1656,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>38</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>38</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>43</v>
@@ -1740,7 +1740,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1751,27 +1751,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>45</v>
@@ -1796,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>47</v>
@@ -1810,7 +1810,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>51</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1866,7 +1866,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>53</v>
@@ -1880,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>55</v>
@@ -1894,7 +1894,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1950,7 +1950,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>59</v>
@@ -1961,41 +1961,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="4">
         <v>1167</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D70" s="4">
         <v>820</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4">
         <v>819</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="5">
         <v>994</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D80" s="5">
         <v>695</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" s="4">
         <v>986</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="5">
         <v>163</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D89" s="5">
         <v>160</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="5">
         <v>569</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="5">
         <v>762</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2381,27 +2381,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528974A-7DB2-4245-807A-67A17596D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0199A74-2B85-4FEE-A9FA-79252D2FEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="181">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>S030006</t>
-  </si>
-  <si>
     <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
@@ -504,9 +495,6 @@
   </si>
   <si>
     <t>S150189</t>
-  </si>
-  <si>
-    <t>BISCOITO - DOCE</t>
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
@@ -1033,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:D66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1065,13 +1053,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1079,27 +1067,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1107,10 +1095,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1121,100 +1109,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D6" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
+        <v>176</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1208</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4">
-        <v>829</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>809</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1045</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,69 +1210,69 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,276 +1280,276 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4">
-        <v>52</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="5">
-        <v>904</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="4">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
-        <v>903</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4">
-        <v>108</v>
+        <v>151</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1178</v>
+        <v>31</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1179</v>
+        <v>110</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1569,72 +1557,72 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>32</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="5">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1162</v>
+        <v>36</v>
+      </c>
+      <c r="D40" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
+      <c r="D41" s="5">
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="5">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,349 +1630,349 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" s="5">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D44" s="5">
-        <v>900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="5">
-        <v>898</v>
+        <v>157</v>
+      </c>
+      <c r="D45" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="D46" s="4">
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="4">
-        <v>166</v>
+        <v>139</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D50" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>131</v>
+        <v>43</v>
+      </c>
+      <c r="D51" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="4">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="4">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D57" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4">
-        <v>1164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4">
-        <v>40</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="4">
-        <v>31</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,186 +1986,186 @@
         <v>61</v>
       </c>
       <c r="D68" s="4">
-        <v>211</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D71" s="4">
-        <v>819</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="4">
-        <v>395</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D74" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D75" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D76" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="4">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="D77" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="4">
-        <v>54</v>
+      <c r="D78" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="5">
-        <v>994</v>
+        <v>141</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="5">
-        <v>695</v>
+        <v>77</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2188,27 +2176,27 @@
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,41 +2204,41 @@
         <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="4">
-        <v>986</v>
+        <v>81</v>
+      </c>
+      <c r="D85" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="4">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="D86" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,41 +2246,41 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D87" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D88" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D89" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,52 +2288,52 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="5">
-        <v>569</v>
+        <v>89</v>
+      </c>
+      <c r="D90" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="5">
-        <v>762</v>
+        <v>122</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2353,64 +2341,36 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="4">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="4">
+        <v>120</v>
+      </c>
+      <c r="D95" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-      <sortCondition ref="A1:A97"/>
+  <autoFilter ref="A1:D95" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+      <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2418,7 +2378,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D97">
+  <conditionalFormatting sqref="A2:D95">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0199A74-2B85-4FEE-A9FA-79252D2FEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC647B0-8B24-487A-901B-616434D33F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -248,9 +248,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
   </si>
   <si>
     <t>S010087</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
@@ -1021,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1053,13 +1047,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1067,27 +1061,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1095,10 +1089,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1109,13 +1103,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1123,13 +1117,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1137,13 +1131,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1154,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1168,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1182,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1196,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1210,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1221,13 +1215,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1238,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1252,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1263,13 +1257,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1280,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1294,7 +1288,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1305,10 +1299,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1322,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1336,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1350,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1361,13 +1355,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="5">
         <v>904</v>
@@ -1375,13 +1369,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1392,7 +1386,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1403,10 +1397,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1417,13 +1411,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1431,13 +1425,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1448,7 +1442,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1459,13 +1453,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1473,13 +1467,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1487,13 +1481,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1501,13 +1495,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1518,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1529,27 +1523,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1557,10 +1551,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1574,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1588,7 +1582,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1602,7 +1596,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1616,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1630,7 +1624,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1641,13 +1635,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -1655,13 +1649,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1669,13 +1663,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1686,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>41</v>
@@ -1700,7 +1694,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1711,27 +1705,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1739,10 +1733,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
@@ -1756,7 +1750,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1770,7 +1764,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>47</v>
@@ -1784,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1795,13 +1789,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -1809,13 +1803,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="4">
         <v>1164</v>
@@ -1826,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>51</v>
@@ -1840,7 +1834,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>53</v>
@@ -1854,7 +1848,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
@@ -1865,13 +1859,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1879,13 +1873,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1893,13 +1887,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" s="4">
         <v>31</v>
@@ -1910,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>57</v>
@@ -1921,13 +1915,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1935,16 +1929,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,7 +1946,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -1963,13 +1957,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1980,7 +1974,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -1994,7 +1988,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -2008,7 +2002,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>64</v>
@@ -2022,7 +2016,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
@@ -2036,7 +2030,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>68</v>
@@ -2050,41 +2044,41 @@
         <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D73" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="4">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="D75" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,52 +2086,52 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D76" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="5">
-        <v>994</v>
+        <v>139</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="5">
-        <v>695</v>
+        <v>76</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2145,167 +2139,167 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="4">
-        <v>986</v>
+        <v>80</v>
+      </c>
+      <c r="D83" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="4">
-        <v>170</v>
+      <c r="D84" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D85" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D86" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D87" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="5">
-        <v>569</v>
+        <v>88</v>
+      </c>
+      <c r="D88" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="5">
-        <v>762</v>
+        <v>121</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D90" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2313,64 +2307,36 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="4">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="4">
+        <v>119</v>
+      </c>
+      <c r="D93" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition ref="A1:A95"/>
+  <autoFilter ref="A1:D93" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2378,7 +2344,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D93">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC647B0-8B24-487A-901B-616434D33F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0BEF4-1229-40CB-8EBB-CCD0B0E7E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="178">
   <si>
     <t>Complemento</t>
   </si>
@@ -230,9 +230,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>CX</t>
   </si>
   <si>
@@ -576,6 +570,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -683,7 +680,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1018,7 +1024,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+      <selection activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1047,13 +1053,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1061,27 +1067,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1089,10 +1095,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1103,13 +1109,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1117,13 +1123,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1131,13 +1137,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1148,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1162,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1176,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1190,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1204,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1215,13 +1221,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1232,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1246,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1257,13 +1263,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1288,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1299,10 +1305,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1316,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1330,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1344,7 +1350,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1355,13 +1361,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="5">
         <v>904</v>
@@ -1369,13 +1375,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1386,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1397,10 +1403,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1411,13 +1417,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1425,13 +1431,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1442,7 +1448,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1453,13 +1459,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1467,13 +1473,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1481,13 +1487,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1495,13 +1501,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1512,7 +1518,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1523,27 +1529,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1551,10 +1557,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1568,7 +1574,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1582,7 +1588,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1596,7 +1602,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1610,7 +1616,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1624,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1635,13 +1641,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -1649,13 +1655,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1663,13 +1669,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1680,7 +1686,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>41</v>
@@ -1694,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1705,27 +1711,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
@@ -1750,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1764,7 +1770,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>47</v>
@@ -1778,7 +1784,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1789,13 +1795,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -1803,13 +1809,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="4">
         <v>1164</v>
@@ -1820,7 +1826,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>51</v>
@@ -1834,7 +1840,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>53</v>
@@ -1848,7 +1854,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
@@ -1859,13 +1865,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1873,13 +1879,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1887,13 +1893,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" s="4">
         <v>31</v>
@@ -1904,7 +1910,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>57</v>
@@ -1915,13 +1921,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1929,16 +1935,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +1952,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -1957,13 +1963,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1974,7 +1980,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -1988,7 +1994,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -1999,27 +2005,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D70" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D71" s="4">
         <v>395</v>
@@ -2027,13 +2033,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2041,13 +2047,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2055,13 +2061,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2069,13 +2075,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="5">
         <v>994</v>
@@ -2083,13 +2089,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D76" s="5">
         <v>695</v>
@@ -2097,13 +2103,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2111,13 +2117,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2125,13 +2131,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2139,13 +2145,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>107</v>
@@ -2153,13 +2159,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" s="4">
         <v>986</v>
@@ -2167,13 +2173,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2181,13 +2187,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2195,13 +2201,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2209,13 +2215,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2223,13 +2229,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2237,13 +2243,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2251,13 +2257,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2265,13 +2271,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2279,13 +2285,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -2293,13 +2299,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2307,27 +2313,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
@@ -2340,13 +2346,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A2:D69 A71:D93">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:D70">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0BEF4-1229-40CB-8EBB-CCD0B0E7E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAEF7CE-1144-4539-B255-83F067E37FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -680,16 +680,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1023,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1053,13 +1044,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1067,27 +1058,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1095,10 +1086,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1109,13 +1100,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1123,13 +1114,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1137,13 +1128,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1154,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1168,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1182,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1196,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1210,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1221,13 +1212,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1238,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1252,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1263,13 +1254,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1294,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1305,10 +1296,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1322,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1336,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1350,7 +1341,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1361,13 +1352,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D24" s="5">
         <v>904</v>
@@ -1375,13 +1366,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1392,7 +1383,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1403,10 +1394,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1417,13 +1408,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1431,13 +1422,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1448,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1459,13 +1450,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1473,13 +1464,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1487,13 +1478,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1501,13 +1492,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1518,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1529,27 +1520,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1557,10 +1548,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1574,7 +1565,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1588,7 +1579,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1602,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1616,7 +1607,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1630,7 +1621,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1641,13 +1632,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -1655,13 +1646,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1669,13 +1660,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1686,7 +1677,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>41</v>
@@ -1700,7 +1691,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1711,27 +1702,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1739,10 +1730,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
@@ -1756,7 +1747,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1767,27 +1758,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1795,13 +1786,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -1809,13 +1800,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D56" s="4">
         <v>1164</v>
@@ -1823,13 +1814,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1837,13 +1828,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1851,13 +1842,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D59" s="4">
         <v>745</v>
@@ -1865,13 +1856,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1879,13 +1870,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1893,13 +1884,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D62" s="4">
         <v>31</v>
@@ -1907,13 +1898,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -1921,13 +1912,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1935,27 +1926,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>211</v>
@@ -1963,13 +1954,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1977,13 +1968,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>820</v>
@@ -1991,13 +1982,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4">
         <v>819</v>
@@ -2005,13 +1996,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
         <v>1394</v>
@@ -2019,13 +2010,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>395</v>
@@ -2033,13 +2024,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2047,13 +2038,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2061,13 +2052,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2075,13 +2066,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="5">
         <v>994</v>
@@ -2089,13 +2080,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D76" s="5">
         <v>695</v>
@@ -2103,13 +2094,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2117,13 +2108,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2131,13 +2122,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2145,13 +2136,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D80" s="4">
         <v>107</v>
@@ -2159,13 +2150,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="4">
         <v>986</v>
@@ -2173,13 +2164,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2187,13 +2178,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2201,13 +2192,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2215,13 +2206,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2229,13 +2220,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2243,13 +2234,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2257,13 +2248,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2271,13 +2262,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2285,13 +2276,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -2299,13 +2290,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2313,27 +2304,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
@@ -2346,18 +2337,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D69 A71:D93">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D93">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:D70">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAEF7CE-1144-4539-B255-83F067E37FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8B12D-979D-4142-BDD8-BE1730EC2EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -131,18 +122,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -260,9 +239,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -338,9 +314,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -365,21 +338,12 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -389,33 +353,18 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -440,21 +389,12 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -467,18 +407,12 @@
     <t>118</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
     <t>S010012</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -536,9 +470,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -560,9 +491,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -573,6 +501,75 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA 12X40MM - 100UN </t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1012,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1044,13 +1050,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1058,1290 +1064,1309 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>80</v>
+      </c>
+      <c r="D3" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.5</v>
+        <v>120</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="5">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1208</v>
+        <v>95</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>809</v>
+        <v>148</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>1045</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
-        <v>52</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="5">
-        <v>904</v>
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="4">
-        <v>903</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4">
-        <v>108</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1160</v>
+        <v>124</v>
+      </c>
+      <c r="D29" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4">
-        <v>103</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4">
-        <v>1176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D34" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1436</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1162</v>
+        <v>99</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1454</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="5">
-        <v>899</v>
+        <v>29</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1455</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D43" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D44" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="4">
-        <v>750</v>
+        <v>100</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1456</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D46" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D47" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D48" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>124</v>
+        <v>36</v>
+      </c>
+      <c r="D49" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D51" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D53" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1396</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D55" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1164</v>
+        <v>91</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D62" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="D64" s="4">
-        <v>1181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4">
-        <v>211</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D70" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D71" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="5">
-        <v>994</v>
+        <v>61</v>
+      </c>
+      <c r="D75" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D76" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D77" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D80" s="4">
-        <v>107</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D82" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="5">
-        <v>163</v>
+        <v>70</v>
+      </c>
+      <c r="D83" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D84" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D85" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D86" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D87" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="4">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="D88" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>151</v>
+        <v>93</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1417</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A93"/>
+  <autoFilter ref="A1:D94" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+      <sortCondition ref="A1:A94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A3:D94">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8B12D-979D-4142-BDD8-BE1730EC2EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D7742-3BC1-401E-94D4-54EF3DC73886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -677,16 +677,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1018,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,147 +1055,147 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="D6" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1208</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1045</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>109</v>
@@ -1213,82 +1204,82 @@
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D17" s="4">
-        <v>1453</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>1184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>109</v>
@@ -1297,12 +1288,12 @@
         <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>109</v>
@@ -1311,68 +1302,68 @@
         <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>129</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4">
-        <v>1444</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4">
-        <v>52</v>
+        <v>90</v>
+      </c>
+      <c r="D24" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>109</v>
@@ -1380,27 +1371,27 @@
       <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="5">
-        <v>904</v>
+      <c r="D25" s="4">
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4">
-        <v>903</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>112</v>
@@ -1409,68 +1400,68 @@
         <v>24</v>
       </c>
       <c r="D27" s="4">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4">
-        <v>100</v>
+        <v>124</v>
+      </c>
+      <c r="D28" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="5">
-        <v>874</v>
+        <v>123</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4">
-        <v>1160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D31" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>109</v>
@@ -1479,12 +1470,12 @@
         <v>106</v>
       </c>
       <c r="D32" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>109</v>
@@ -1493,12 +1484,12 @@
         <v>106</v>
       </c>
       <c r="D33" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>109</v>
@@ -1507,96 +1498,96 @@
         <v>106</v>
       </c>
       <c r="D34" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1179</v>
+        <v>27</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1436</v>
+        <v>98</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1454</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1454</v>
+        <v>28</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1455</v>
+        <v>31</v>
+      </c>
+      <c r="D40" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>109</v>
@@ -1605,12 +1596,12 @@
         <v>31</v>
       </c>
       <c r="D41" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>109</v>
@@ -1619,12 +1610,12 @@
         <v>31</v>
       </c>
       <c r="D42" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>109</v>
@@ -1633,68 +1624,68 @@
         <v>31</v>
       </c>
       <c r="D43" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1456</v>
+        <v>130</v>
+      </c>
+      <c r="D45" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D46" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>109</v>
@@ -1703,180 +1694,180 @@
         <v>36</v>
       </c>
       <c r="D48" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="D49" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D50" s="4">
-        <v>272</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D52" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1396</v>
+        <v>42</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1416</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1416</v>
+        <v>91</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D57" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>109</v>
@@ -1885,12 +1876,12 @@
         <v>146</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>109</v>
@@ -1899,96 +1890,96 @@
         <v>146</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D63" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D65" s="4">
-        <v>1181</v>
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="D66" s="4">
-        <v>874</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D67" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D68" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>112</v>
@@ -1997,68 +1988,68 @@
         <v>53</v>
       </c>
       <c r="D69" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D70" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4">
-        <v>1394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D72" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>113</v>
@@ -2067,26 +2058,26 @@
         <v>61</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="4">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="D75" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>109</v>
@@ -2095,110 +2086,110 @@
         <v>64</v>
       </c>
       <c r="D76" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="5">
-        <v>695</v>
+        <v>117</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D78" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D79" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4">
-        <v>1030</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D81" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
-        <v>986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="4">
-        <v>170</v>
+      <c r="D83" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>109</v>
@@ -2207,26 +2198,26 @@
         <v>70</v>
       </c>
       <c r="D84" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D85" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>110</v>
@@ -2235,12 +2226,12 @@
         <v>74</v>
       </c>
       <c r="D86" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>110</v>
@@ -2249,124 +2240,105 @@
         <v>74</v>
       </c>
       <c r="D87" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" s="5">
-        <v>762</v>
+        <v>78</v>
+      </c>
+      <c r="D88" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D89" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" s="4">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1417</v>
+        <v>128</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D93" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
-      <sortCondition ref="A1:A94"/>
+  <autoFilter ref="A1:D93" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D94">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2">
+  <conditionalFormatting sqref="A2:D93">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D7742-3BC1-401E-94D4-54EF3DC73886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED10F6E6-F97E-48C0-8A71-228ED43DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t xml:space="preserve">AGULHA 12X40MM - 100UN </t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1009,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,105 +1784,105 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1416</v>
+        <v>178</v>
+      </c>
+      <c r="D54" s="4">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1416</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1164</v>
+        <v>91</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>109</v>
@@ -1876,12 +1891,12 @@
         <v>146</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>109</v>
@@ -1890,96 +1905,96 @@
         <v>146</v>
       </c>
       <c r="D62" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D64" s="4">
-        <v>1181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D65" s="4">
-        <v>874</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4">
-        <v>211</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>112</v>
@@ -1988,68 +2003,68 @@
         <v>53</v>
       </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>113</v>
@@ -2058,26 +2073,26 @@
         <v>61</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="5">
-        <v>994</v>
+        <v>61</v>
+      </c>
+      <c r="D75" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>109</v>
@@ -2086,110 +2101,110 @@
         <v>64</v>
       </c>
       <c r="D76" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1457</v>
+        <v>64</v>
+      </c>
+      <c r="D77" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D78" s="4">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D79" s="4">
-        <v>1030</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D80" s="4">
-        <v>107</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D82" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="5">
-        <v>163</v>
+      <c r="D83" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>109</v>
@@ -2198,26 +2213,26 @@
         <v>70</v>
       </c>
       <c r="D84" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D85" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>110</v>
@@ -2226,12 +2241,12 @@
         <v>74</v>
       </c>
       <c r="D86" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>110</v>
@@ -2240,107 +2255,126 @@
         <v>74</v>
       </c>
       <c r="D87" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="4">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="D88" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D91" s="4">
-        <v>1417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>129</v>
+        <v>93</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1417</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="B94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D94" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A93"/>
+  <autoFilter ref="A1:D94" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+      <sortCondition ref="A1:A94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A2:D53 A55:D94">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:D54">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED10F6E6-F97E-48C0-8A71-228ED43DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAE034-2CF8-48CC-9A5B-ECBFADA95DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -404,9 +404,6 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -569,13 +563,13 @@
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
   <si>
-    <t xml:space="preserve">AGULHA 12X40MM - 100UN </t>
-  </si>
-  <si>
     <t>ISOPOR - 3L - 3L</t>
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -683,16 +677,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1026,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8158-03BE-423E-856B-5E0D0733912D}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,8 +1063,8 @@
       <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>121</v>
+      <c r="D3" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,12 +1078,12 @@
         <v>88</v>
       </c>
       <c r="D4" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>109</v>
@@ -1140,13 +1125,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1252,7 +1237,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>109</v>
@@ -1266,13 +1251,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1322,7 +1307,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>114</v>
@@ -1331,12 +1316,12 @@
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>114</v>
@@ -1420,13 +1405,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5">
         <v>874</v>
@@ -1434,13 +1419,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1462,7 +1447,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>109</v>
@@ -1476,7 +1461,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>109</v>
@@ -1490,7 +1475,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>109</v>
@@ -1504,7 +1489,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>109</v>
@@ -1518,7 +1503,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>109</v>
@@ -1532,7 +1517,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>109</v>
@@ -1540,13 +1525,13 @@
       <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>126</v>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>109</v>
@@ -1560,7 +1545,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>109</v>
@@ -1574,7 +1559,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>109</v>
@@ -1644,7 +1629,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>109</v>
@@ -1658,13 +1643,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1714,7 +1699,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>109</v>
@@ -1728,7 +1713,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>109</v>
@@ -1742,7 +1727,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>109</v>
@@ -1770,7 +1755,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
@@ -1784,13 +1769,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>116</v>
@@ -1798,7 +1783,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>109</v>
@@ -1812,7 +1797,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
@@ -1821,18 +1806,18 @@
         <v>91</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="4">
         <v>1164</v>
@@ -1854,7 +1839,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>109</v>
@@ -1882,13 +1867,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1896,13 +1881,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1910,13 +1895,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1938,13 +1923,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="4">
         <v>1181</v>
@@ -1952,13 +1937,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4">
         <v>874</v>
@@ -1980,7 +1965,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>109</v>
@@ -2022,7 +2007,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>112</v>
@@ -2120,7 +2105,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>109</v>
@@ -2134,7 +2119,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>109</v>
@@ -2148,7 +2133,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>109</v>
@@ -2176,7 +2161,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>112</v>
@@ -2288,7 +2273,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>109</v>
@@ -2316,7 +2301,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>114</v>
@@ -2330,21 +2315,21 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>109</v>
@@ -2363,18 +2348,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D53 A55:D94">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D94">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D54">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAE034-2CF8-48CC-9A5B-ECBFADA95DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D16B2D-BB9F-44FA-973B-01789591935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1456,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>106</v>
       </c>
       <c r="D32" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>106</v>
       </c>
       <c r="D33" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>106</v>
       </c>
       <c r="D34" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D16B2D-BB9F-44FA-973B-01789591935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB56C19-D2CB-4812-87A9-EA206BC60827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A54" sqref="A54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/BA_csoservi_cservico_csala.xlsx
+++ b/pages/BA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB56C19-D2CB-4812-87A9-EA206BC60827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BC12E-4FDE-4AF2-A031-7E006A248EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{210D5670-B60D-45E3-BE92-0AB707550371}"/>
   </bookViews>
@@ -281,15 +281,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
@@ -570,6 +561,15 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D54"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5">
         <v>1505</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="D14" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1268,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1307,24 +1307,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1338,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5">
         <v>904</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1380,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5">
         <v>874</v>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1436,7 +1436,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>26</v>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4">
         <v>1175</v>
@@ -1461,13 +1461,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4">
         <v>1176</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4">
         <v>1177</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4">
         <v>1178</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="5">
         <v>12</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" s="5">
         <v>1454</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>28</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>29</v>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>31</v>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>31</v>
@@ -1604,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>31</v>
@@ -1618,7 +1618,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="5">
         <v>1456</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1674,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>36</v>
@@ -1688,7 +1688,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>36</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="4">
         <v>272</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4">
         <v>1157</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>38</v>
@@ -1744,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>40</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>41</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4">
         <v>116</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>42</v>
@@ -1797,27 +1797,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D57" s="4">
         <v>1164</v>
@@ -1828,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>44</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>45</v>
@@ -1856,7 +1856,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>47</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1912,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>49</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4">
         <v>1181</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D66" s="4">
         <v>874</v>
@@ -1954,7 +1954,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>51</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D68" s="4">
         <v>1167</v>
@@ -1982,7 +1982,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>53</v>
@@ -1996,7 +1996,7 @@
         <v>54</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>53</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>55</v>
@@ -2024,7 +2024,7 @@
         <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>57</v>
@@ -2038,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>59</v>
@@ -2052,7 +2052,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -2066,7 +2066,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
@@ -2080,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -2094,7 +2094,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>64</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D78" s="4">
         <v>1457</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>66</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4">
         <v>1030</v>
@@ -2150,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>68</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>986</v>
@@ -2178,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>70</v>
@@ -2192,7 +2192,7 @@
         <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>70</v>
@@ -2206,7 +2206,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>70</v>
@@ -2220,7 +2220,7 @@
         <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
@@ -2234,7 +2234,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>74</v>
@@ -2248,7 +2248,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>74</v>
@@ -2262,7 +2262,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>78</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" s="4">
         <v>202</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4">
         <v>1417</v>
@@ -2315,27 +2315,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D94" s="5">
         <v>1458</v>
